--- a/SFT-MS3/MS3 - BlackboxTest_FuncImplem.xlsx
+++ b/SFT-MS3/MS3 - BlackboxTest_FuncImplem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisiane Pires\Documents\03. RENAN\TransferFiles-Github\TransferFiles\SFT-MS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93C720-EC8E-415B-B560-9CD058C3001B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA9A41-9990-4D78-BB8F-B80F7D1BDBD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
   <si>
     <t>PARAMETERS</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Testing if the code breaks considering the maximum and minimum values for two points</t>
   </si>
   <si>
-    <t>inputError</t>
-  </si>
-  <si>
-    <t>Testing if characteres (letters) will break the code</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
@@ -100,58 +94,88 @@
     <t>{25,25}</t>
   </si>
   <si>
-    <t>{A,2}</t>
-  </si>
-  <si>
-    <t>{30,100}</t>
-  </si>
-  <si>
     <t>Testing if there is a maximum value for input, since our code is a 25x25, we should not accept more than 25</t>
   </si>
   <si>
     <t>FUNCTION: shortestPath</t>
   </si>
   <si>
-    <t>{4,2}</t>
-  </si>
-  <si>
-    <t>{{0,0}, {1,0}, {2,0}, {3,0}, {4,0}, {4,1}}, 6</t>
-  </si>
-  <si>
-    <t>{15,8}</t>
-  </si>
-  <si>
     <t>{12,6}</t>
   </si>
   <si>
-    <t>{{12,6}, {13,6}, {14,6}, {15,6}, {15,7} }, 5</t>
-  </si>
-  <si>
-    <t>When we look to the map, this is the shortest path. So, we want to make sure that the code also check like that, or if it will take the path based on the shortest point, which is {13,6}, but will give us the longest path</t>
-  </si>
-  <si>
-    <t>{9,7}</t>
-  </si>
-  <si>
-    <t>{9,11}</t>
-  </si>
-  <si>
-    <t>{{9,7}, {10,8}, {10,11} }, 3</t>
-  </si>
-  <si>
-    <t>{10,8} is the shortest point based on the start point. We want to make sure the truck can move diagonally</t>
-  </si>
-  <si>
-    <t>{20,2}</t>
-  </si>
-  <si>
-    <t>{25, 3}</t>
-  </si>
-  <si>
-    <t>{{20,2}, {21,1}, {22,1},{23,1},{24,1},{25,1}}, 6</t>
-  </si>
-  <si>
-    <t>The dest point is unaccessable by any side. The closest white square close to it is at {25,1}. So, we want to make sure it will take the way where the closest white square is</t>
+    <t>{2.5,10.8}</t>
+  </si>
+  <si>
+    <t>{1000,1000}</t>
+  </si>
+  <si>
+    <t>{-1000,-1000}</t>
+  </si>
+  <si>
+    <t>Testing if float numbers are accepted. We expect our float be treated as integer since our gride is only integers</t>
+  </si>
+  <si>
+    <t>{2,4}</t>
+  </si>
+  <si>
+    <t>{ {0,1}, {0,2}, {1,3}, {2,3} }, 4</t>
+  </si>
+  <si>
+    <t>{19,1}</t>
+  </si>
+  <si>
+    <t>Whitebox</t>
+  </si>
+  <si>
+    <t>{ {20,2}-{20,1}-{21,0}-{22,0}-{23,0}-{24,0} }, 6</t>
+  </si>
+  <si>
+    <t>{24, 2}</t>
+  </si>
+  <si>
+    <t>The dest point is unaccessable by any side. The closest white square close to it is at {24,1}. The code only check for the closest point mathematically, so it first makes a wrong way to {20,1}, then it goes back to the ideal path</t>
+  </si>
+  <si>
+    <t>{-2,-2}</t>
+  </si>
+  <si>
+    <t>{2,2}</t>
+  </si>
+  <si>
+    <t>{ {-2,-1},{-1,0},{0,1},{0,2},{1,3},{2,3} }, 6</t>
+  </si>
+  <si>
+    <t>Checking if negative positions work as a mirror to the grid. So, the position {-2,-2} is like if 2 rows and 2 columns were added (above and left, respectively, to the {0,0} position).</t>
+  </si>
+  <si>
+    <t>{{9,7},{8,8},{8,9} }, 3</t>
+  </si>
+  <si>
+    <t>{8,6}</t>
+  </si>
+  <si>
+    <t>{8,10}</t>
+  </si>
+  <si>
+    <t>{5,0}</t>
+  </si>
+  <si>
+    <t>{ {5,1},{6,2},{7,2},{8,1},{8,0} }, 5</t>
+  </si>
+  <si>
+    <t>Testing if a delivery is NOT made diagonally</t>
+  </si>
+  <si>
+    <t>{7,0}</t>
+  </si>
+  <si>
+    <t>{9,7} is the shortest point based on the start point. We want to make sure the truck can move diagonally</t>
+  </si>
+  <si>
+    <t>{ {1,0},{2,0},{3,1},{4,2},{5,3},{6,3},{7,3},{8,4},{9,5},{10,6},{11,6} }, 11</t>
+  </si>
+  <si>
+    <t>Testing if the truck is able to move freely (left, right, up and down)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +204,19 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -284,6 +321,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -299,29 +351,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,164 +666,167 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.140625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="E6" s="16">
+        <v>35.36</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16">
+        <v>10.198</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2828427124.7461901</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10">
-        <v>35.36</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1000000</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -773,10 +835,31 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12^2</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SQRT(C12+C13)</f>
+        <v>10.198039027185569</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13^2</f>
+        <v>100</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,19 +869,19 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
+      <c r="D17" s="5"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
+      <c r="D18" s="5"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -901,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,178 +996,219 @@
     <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2"/>
-    <col min="6" max="6" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.140625" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="C5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="F9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
@@ -1176,9 +1300,6 @@
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1194,9 +1315,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,27 +1501,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1422,9 +1534,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>